--- a/biology/Médecine/Déficit_en_carnitine_palmitoyltransférase_I/Déficit_en_carnitine_palmitoyltransférase_I.xlsx
+++ b/biology/Médecine/Déficit_en_carnitine_palmitoyltransférase_I/Déficit_en_carnitine_palmitoyltransférase_I.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_carnitine_palmitoyltransf%C3%A9rase_I</t>
+          <t>Déficit_en_carnitine_palmitoyltransférase_I</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le déficit en carnitine palmitoyltransférase I  est une maladie métabolique congénitale par trouble de l’oxydation mitochondriale des acides gras à longue chaîne. L’oxydation hépatique des acides gras fournit de l’énergie en cas d’épuisement des réserves en glycogène donc en cas de jeune prolongé.
 Les manifestations de ce déficit se voient surtout en cas d’augmentation de la demande énergétique :
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_carnitine_palmitoyltransf%C3%A9rase_I</t>
+          <t>Déficit_en_carnitine_palmitoyltransférase_I</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mutation du gène CPT1A  (en) 600528 localisé sur le locus q13 du chromosome 11 codant la carnitine palmitoyltransférase I. La carnitine palmitoyltransférase I contribue au transfert des acides gras à longue chaîne du cytosol vers la mitochondrie siège de leur oxydation. La carnitine palmitoyltransférase I existe sous deux formes : une forme hépatique et une forme musculaire. Seule le déficit de la forme hépatique entraîne une symptomatologie.
 </t>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_carnitine_palmitoyltransf%C3%A9rase_I</t>
+          <t>Déficit_en_carnitine_palmitoyltransférase_I</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Incidence &amp; Prévalence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Quelques dizaines de cas ont été décrits.
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_carnitine_palmitoyltransf%C3%A9rase_I</t>
+          <t>Déficit_en_carnitine_palmitoyltransférase_I</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,12 +596,87 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Biologique
-Outre les signes biologiques des manifestations cliniques, la recherche de l’activité enzymatique de la carnitine palmitoyltransférase par culture de fibroblaste permet de faire le diagnostic.
-Génétique
-Le séquençage permet de faire le diagnostic de la mutation.
-Diagnostic différentiel
-Le diagnostic doit faire discuter tous les troubles de l’oxydation des acides gras se manifestant par une hypoglycémie hypocétonémique :
+          <t>Biologique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outre les signes biologiques des manifestations cliniques, la recherche de l’activité enzymatique de la carnitine palmitoyltransférase par culture de fibroblaste permet de faire le diagnostic.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Déficit_en_carnitine_palmitoyltransférase_I</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9ficit_en_carnitine_palmitoyltransf%C3%A9rase_I</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Génétique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le séquençage permet de faire le diagnostic de la mutation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Déficit_en_carnitine_palmitoyltransférase_I</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9ficit_en_carnitine_palmitoyltransf%C3%A9rase_I</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Diagnostic différentiel</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le diagnostic doit faire discuter tous les troubles de l’oxydation des acides gras se manifestant par une hypoglycémie hypocétonémique :
 déficit en oxydation des acides gras à chaînes moyennes ;
 déficit en 3-hydroxy-3-méthylglutaryl CoA syntéthase ;
 déficit en carnitine palmitoyltransférase II ;
@@ -594,76 +685,13 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>D%C3%A9ficit_en_carnitine_palmitoyltransf%C3%A9rase_I</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/D%C3%A9ficit_en_carnitine_palmitoyltransf%C3%A9rase_I</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Dépistage néonatal</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le dépistage néonatal est possible en utilisant le ratio palmitoylcarnitine sur carnitine libre.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>D%C3%A9ficit_en_carnitine_palmitoyltransf%C3%A9rase_I</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/D%C3%A9ficit_en_carnitine_palmitoyltransf%C3%A9rase_I</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Conseil génétique</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mode de transmission
-Transmission autosomique récessive
-</t>
-        </is>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_carnitine_palmitoyltransf%C3%A9rase_I</t>
+          <t>Déficit_en_carnitine_palmitoyltransférase_I</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -678,13 +706,85 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Dépistage néonatal</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le dépistage néonatal est possible en utilisant le ratio palmitoylcarnitine sur carnitine libre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Déficit_en_carnitine_palmitoyltransférase_I</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9ficit_en_carnitine_palmitoyltransf%C3%A9rase_I</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Conseil génétique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Mode de transmission</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Transmission autosomique récessive
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Déficit_en_carnitine_palmitoyltransférase_I</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9ficit_en_carnitine_palmitoyltransf%C3%A9rase_I</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number: 255120[1]
-(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [2]
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number: 255120
+(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 
  Portail de la médecine                     </t>
         </is>
       </c>
